--- a/Fil_Rouge/dictionnaire_de_donnees_fil_rouge.xlsx
+++ b/Fil_Rouge/dictionnaire_de_donnees_fil_rouge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">Dictionnaire de données</t>
   </si>
@@ -69,7 +69,7 @@
     <t>prixProduit</t>
   </si>
   <si>
-    <t xml:space="preserve">Prix du produit</t>
+    <t xml:space="preserve">Prix du produit (hors taxes)</t>
   </si>
   <si>
     <t>decimal</t>
@@ -181,6 +181,132 @@
   </si>
   <si>
     <t xml:space="preserve">Type du paiement (paiement à la commande ou différé) selon catégorie client</t>
+  </si>
+  <si>
+    <t>Adresses</t>
+  </si>
+  <si>
+    <t>idAdresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de l'adresse</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse où habite le client</t>
+  </si>
+  <si>
+    <t>complementAdresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentions complémentaires de l'adresse du client (appart, esclalier, bat,...)</t>
+  </si>
+  <si>
+    <t>numTel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro de téléphone portable du client</t>
+  </si>
+  <si>
+    <t>numFixe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro fixe du client</t>
+  </si>
+  <si>
+    <t>Villes</t>
+  </si>
+  <si>
+    <t>idVille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de la ville</t>
+  </si>
+  <si>
+    <t>nomVille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de la ville</t>
+  </si>
+  <si>
+    <t>codePostalVille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Postal de la ville</t>
+  </si>
+  <si>
+    <t>Commandes</t>
+  </si>
+  <si>
+    <t>idCommande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de la commande</t>
+  </si>
+  <si>
+    <t>numCommande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro de la commande (unique)</t>
+  </si>
+  <si>
+    <t>dateCommande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date où la commande a été passée</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>idTaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de la taxe</t>
+  </si>
+  <si>
+    <t>tauxTaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de la taxe (TVA)</t>
+  </si>
+  <si>
+    <t>Utilisateurs</t>
+  </si>
+  <si>
+    <t>idUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de l'utilisateur</t>
+  </si>
+  <si>
+    <t>nomUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l'utilisateur</t>
+  </si>
+  <si>
+    <t>prenomUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom de l'utilisateur</t>
+  </si>
+  <si>
+    <t>emailUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email de l'utilisateur (2 utilisateurs ne peuvent pas avoir le même email)</t>
+  </si>
+  <si>
+    <t>mdpUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mot de passe de l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -209,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +390,36 @@
         <bgColor rgb="FFF25E5E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF587FF"/>
+        <bgColor rgb="FFF587FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82FAFA"/>
+        <bgColor rgb="FF82FAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECFF9E"/>
+        <bgColor rgb="FFECFF9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFDA"/>
+        <bgColor rgb="FF99FFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78AEFF"/>
+        <bgColor rgb="FF78AEFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -301,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +536,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="9" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,15 +1084,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="22.3515625"/>
-    <col bestFit="1" min="2" max="2" width="14.28125"/>
-    <col bestFit="1" min="3" max="3" width="21.57421875"/>
+    <col bestFit="1" min="2" max="2" width="18.140625"/>
+    <col customWidth="1" min="3" max="3" width="22.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75">
@@ -1007,12 +1202,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" ht="28.5">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1244,8 +1439,274 @@
         <v>50</v>
       </c>
     </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" ht="28.5">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="57">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5">
+      <c r="A41" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" ht="28.5">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="42.75">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="39">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
@@ -1254,6 +1715,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
